--- a/biology/Médecine/Muscle_transverse_de_l'auricule/Muscle_transverse_de_l'auricule.xlsx
+++ b/biology/Médecine/Muscle_transverse_de_l'auricule/Muscle_transverse_de_l'auricule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_transverse_de_l%27auricule</t>
+          <t>Muscle_transverse_de_l'auricule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle transverse de l'auricule (ou muscle transverse du pavillon ) est un muscle peaucier du pavillon de l'oreille.
 Le muscle est situé sur la surface interne du pavillon.
 Il se compose de fibres éparses, en partie tendineuses et en partie musculaires, s'étendant entre   la convexité de l'hélix et la convexité de la conque.
-Le muscle transverse est issu du développement du deuxième arc branchial[1].
+Le muscle transverse est issu du développement du deuxième arc branchial.
 </t>
         </is>
       </c>
